--- a/Documentação/Planilhas/Layouts/Cockpit_Approved.xlsx
+++ b/Documentação/Planilhas/Layouts/Cockpit_Approved.xlsx
@@ -4,18 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="773"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="stg_taxa_app_mp" sheetId="247" r:id="rId2"/>
+    <sheet name="aux_ods_alerta_app" sheetId="255" r:id="rId2"/>
+    <sheet name="aux_ods_taxa_app" sheetId="251" r:id="rId3"/>
+    <sheet name="ods_alerta_app" sheetId="256" r:id="rId4"/>
+    <sheet name="ods_taxa_app" sheetId="252" r:id="rId5"/>
+    <sheet name="ods_taxa_aprovacao" sheetId="253" r:id="rId6"/>
+    <sheet name="stg_alerta_app" sheetId="254" r:id="rId7"/>
+    <sheet name="stg_alerta_app_tr_rej" sheetId="257" r:id="rId8"/>
+    <sheet name="stg_alerta_app_tr_rej_total" sheetId="258" r:id="rId9"/>
+    <sheet name="stg_taxa_app" sheetId="250" r:id="rId10"/>
+    <sheet name="stg_taxa_app_mp" sheetId="247" r:id="rId11"/>
+    <sheet name="stg_taxa_app_sac" sheetId="248" r:id="rId12"/>
+    <sheet name="stg_taxa_app_unineg" sheetId="249" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="194">
   <si>
     <t>Campo</t>
   </si>
@@ -68,9 +79,6 @@
     <t>[dbo].[stg_taxa_app_mp]</t>
   </si>
   <si>
-    <t>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx</t>
-  </si>
-  <si>
     <t>NR_ORDERS</t>
   </si>
   <si>
@@ -111,6 +119,495 @@
   </si>
   <si>
     <t>Identifica o Meio de Pagamento através da sua descrição. Ex: Cartão de Crédito, Boleto Bancário, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Bandeira do Cartão utilizado para pagamento através da sua descrição. Ex: Mastercard, Visa - GetNet, etc</t>
+  </si>
+  <si>
+    <t>Valor do Pagamento</t>
+  </si>
+  <si>
+    <t>Valor Total do Pagamento</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos</t>
+  </si>
+  <si>
+    <t>Identifica a Lista de Casamento através do seu código. Ex: 0, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Canal de Vendas através da sua descrição. Ex: Site, Mobi, etc</t>
+  </si>
+  <si>
+    <t>v_dw_orders_header</t>
+  </si>
+  <si>
+    <t>v_dw_orders_payment_v3</t>
+  </si>
+  <si>
+    <t>meio_pagamento</t>
+  </si>
+  <si>
+    <t>bandeira_cartao</t>
+  </si>
+  <si>
+    <t>SIGE</t>
+  </si>
+  <si>
+    <t>stg_taxa_app_sac</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_taxa_app_sac]</t>
+  </si>
+  <si>
+    <t>DS_SITUACAO</t>
+  </si>
+  <si>
+    <t>QTDESTATUS</t>
+  </si>
+  <si>
+    <t>Identifica a Situação através da sua descrição. Ex: AAP, ACR, etc</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos em cada situação</t>
+  </si>
+  <si>
+    <t>sac_rastreamento</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_taxa_app_unineg]</t>
+  </si>
+  <si>
+    <t>DS_UNINEG</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através da sua descrição. Ex: B2C PF, B2B PF, CSW, etc</t>
+  </si>
+  <si>
+    <t>unidade_de_negocios</t>
+  </si>
+  <si>
+    <t>nr_unineg</t>
+  </si>
+  <si>
+    <t>ds_meio_pagamento</t>
+  </si>
+  <si>
+    <t>ds_bandeira</t>
+  </si>
+  <si>
+    <t>valorPEI</t>
+  </si>
+  <si>
+    <t>pedidoPEI</t>
+  </si>
+  <si>
+    <t>valorREC</t>
+  </si>
+  <si>
+    <t>pedidoREC</t>
+  </si>
+  <si>
+    <t>valorACR</t>
+  </si>
+  <si>
+    <t>pedidoACR</t>
+  </si>
+  <si>
+    <t>valorAMC</t>
+  </si>
+  <si>
+    <t>pedidoAMC</t>
+  </si>
+  <si>
+    <t>valorCAP</t>
+  </si>
+  <si>
+    <t>pedidoCAP</t>
+  </si>
+  <si>
+    <t>valorPAP</t>
+  </si>
+  <si>
+    <t>pedidoPAP</t>
+  </si>
+  <si>
+    <t>pedidoTransacao</t>
+  </si>
+  <si>
+    <t>valorREV</t>
+  </si>
+  <si>
+    <t>pedidoREV</t>
+  </si>
+  <si>
+    <t>valorNFS</t>
+  </si>
+  <si>
+    <t>pedidoNFS</t>
+  </si>
+  <si>
+    <t>stg_taxa_app_mp</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos com a situação PEI</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos com a situação PEI</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos com a situação REC</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos com a situação REC</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos com a situação ACR</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos com a situação ACR</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos com a situação AMC</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos com a situação AMC</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos com a situação CAP</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos com a situação CAP</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos com a situação PAP</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos com a situação PAP</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos com a situação REV</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos com a situação REV</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos com a situação NFS</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos com a situação NFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de Pedidos </t>
+  </si>
+  <si>
+    <t>[dbo].[stg_taxa_app]</t>
+  </si>
+  <si>
+    <t>[dbo].[aux_ods_taxa_app]</t>
+  </si>
+  <si>
+    <t>ds_unineg</t>
+  </si>
+  <si>
+    <t>pvalorREC</t>
+  </si>
+  <si>
+    <t>ppedidoREC</t>
+  </si>
+  <si>
+    <t>pvalorACR</t>
+  </si>
+  <si>
+    <t>ppedidoACR</t>
+  </si>
+  <si>
+    <t>pvalorAMC</t>
+  </si>
+  <si>
+    <t>ppedidoAMC</t>
+  </si>
+  <si>
+    <t>pvalorCAP</t>
+  </si>
+  <si>
+    <t>ppedidoCAP</t>
+  </si>
+  <si>
+    <t>pvalorPAP</t>
+  </si>
+  <si>
+    <t>ppedidoPAP</t>
+  </si>
+  <si>
+    <t>pvalorREV</t>
+  </si>
+  <si>
+    <t>ppedidoREV</t>
+  </si>
+  <si>
+    <t>pvalorNFS</t>
+  </si>
+  <si>
+    <t>ppedidoNFS</t>
+  </si>
+  <si>
+    <t>txAprovacao</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através da sua descrição. Ex: Barateiro, etc</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos valores REC sobre os valores PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos Pedidos REC sobre os Pedidos PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos valores ACR sobre os valores PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos Pedidos ACR sobre os Pedidos PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos valores AMC sobre os valores PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos Pedidos AMC sobre os Pedidos PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos valores CAP sobre os valores PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos Pedidos CAP sobre os Pedidos PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos valores PAP sobre os valores PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos Pedidos PAP sobre os Pedidos PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos valores REV sobre os valores PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos Pedidos REV sobre os Pedidos PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos valores NFS sobre os valores PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos Pedidos NFS sobre os Pedidos PEI</t>
+  </si>
+  <si>
+    <t>Percentual de participação dos valores PAP sobre os valores CAP</t>
+  </si>
+  <si>
+    <t>stg_taxa_app</t>
+  </si>
+  <si>
+    <t>stg_taxa_app_unineg</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_taxa_app]</t>
+  </si>
+  <si>
+    <t>aux_ods_taxa_app</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_taxa_aprovacao]</t>
+  </si>
+  <si>
+    <t>MIS_DW</t>
+  </si>
+  <si>
+    <t>ods_taxa_app</t>
+  </si>
+  <si>
+    <t>dt_carga</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Carga no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_alerta_app]</t>
+  </si>
+  <si>
+    <t>DT_RASTREAMENTO</t>
+  </si>
+  <si>
+    <t>ID_UNINEG</t>
+  </si>
+  <si>
+    <t>VL_MEIO</t>
+  </si>
+  <si>
+    <t>DIAS</t>
+  </si>
+  <si>
+    <t>Identifica a Data do Rastreamento no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 13, etc</t>
+  </si>
+  <si>
+    <t>Valor do Meio de Pagamento</t>
+  </si>
+  <si>
+    <t>Quantidade de dias negociados</t>
+  </si>
+  <si>
+    <t>pfrios.sac_rastreamento</t>
+  </si>
+  <si>
+    <t>pedido_de_venda_cabecalho</t>
+  </si>
+  <si>
+    <t>pfrios.pedido_venda_entrega_pagto</t>
+  </si>
+  <si>
+    <t>pfrios.meio_pagamento</t>
+  </si>
+  <si>
+    <t>pfrios.pedido_de_venda_cabecalho</t>
+  </si>
+  <si>
+    <t>[dbo].[aux_ods_alerta_app]</t>
+  </si>
+  <si>
+    <t>dias</t>
+  </si>
+  <si>
+    <t>qtde</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de pedidos </t>
+  </si>
+  <si>
+    <t>stg_alerta_app</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_alerta_app]</t>
+  </si>
+  <si>
+    <t>aux_ods_alerta_app</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_alerta_app_tr_rej]</t>
+  </si>
+  <si>
+    <t>ID_MOTIVO_REPROV</t>
+  </si>
+  <si>
+    <t>QTDE</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>DS_MOTIVO_REPROV</t>
+  </si>
+  <si>
+    <t>Quantidade a data do rastreamento no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 13 etc</t>
+  </si>
+  <si>
+    <t>Identifica o Meio de Pagamento através da sua descrição. Ex: Boleto, Cartão de Crédito</t>
+  </si>
+  <si>
+    <t>Identifica a situaçãoatravés do seu código. Ex: REV, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Motivo de Reprovação através do seu código. Ex: -90, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Motivo de Reprovação através da sua descrição. Ex: -90|Nao autorizado, etc</t>
+  </si>
+  <si>
+    <t>pedido_venda_entrega_pagto</t>
+  </si>
+  <si>
+    <t>hist_peap</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_alerta_app_tr_rej_total]</t>
+  </si>
+  <si>
+    <t>Ds_Meio_Pagamento</t>
+  </si>
+  <si>
+    <t>Ds_Bandeira</t>
+  </si>
+  <si>
+    <t>Qtde</t>
+  </si>
+  <si>
+    <t>Ds_Motivo</t>
+  </si>
+  <si>
+    <t>Vl_Pagto</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t>CompraResultadoPagamento</t>
+  </si>
+  <si>
+    <t>CompraFormaPagamento</t>
+  </si>
+  <si>
+    <t>FormaPagamentoSige</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</t>
+  </si>
+  <si>
+    <t>fin.ods_sige_bandeira_pagto</t>
+  </si>
+  <si>
+    <t>MIS_ODS</t>
+  </si>
+  <si>
+    <t>CompraEntrega</t>
+  </si>
+  <si>
+    <t>fin.ods_sige_meio_pagamento</t>
+  </si>
+  <si>
+    <t>Banco Origem SIGE</t>
+  </si>
+  <si>
+    <t>Banco Origem FRONT</t>
+  </si>
+  <si>
+    <t>CompraEntregaStatusLog</t>
+  </si>
+  <si>
+    <t>ods_unidade_negocio</t>
+  </si>
+  <si>
+    <t>LOJA</t>
+  </si>
+  <si>
+    <t>FormaPagamento</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</t>
   </si>
 </sst>
 </file>
@@ -169,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -371,6 +868,34 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -383,7 +908,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -433,6 +958,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,6 +988,501 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -786,18 +1815,16 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -818,115 +1845,542 @@
     </row>
     <row r="3" spans="2:5" ht="15">
       <c r="B3" s="20" t="str">
+        <f>aux_ods_alerta_app!B9</f>
+        <v>[dbo].[aux_ods_alerta_app]</v>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f>aux_ods_alerta_app!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f>aux_ods_alerta_app!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="20" t="str">
+        <f>aux_ods_taxa_app!B9</f>
+        <v>[dbo].[aux_ods_taxa_app]</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f>aux_ods_taxa_app!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f>aux_ods_taxa_app!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="20" t="str">
+        <f>ods_alerta_app!B9</f>
+        <v>[dbo].[ods_alerta_app]</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f>ods_alerta_app!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f>ods_alerta_app!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="20" t="str">
+        <f>ods_taxa_app!B9</f>
+        <v>[dbo].[ods_taxa_app]</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f>ods_taxa_app!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>ods_taxa_app!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="20" t="str">
+        <f>ods_taxa_aprovacao!B9</f>
+        <v>[dbo].[ods_taxa_aprovacao]</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f>ods_taxa_aprovacao!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>ods_taxa_aprovacao!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="20" t="str">
+        <f>stg_alerta_app!B9</f>
+        <v>[dbo].[stg_alerta_app]</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>stg_alerta_app!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>stg_alerta_app!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="20" t="str">
+        <f>stg_alerta_app_tr_rej!B9</f>
+        <v>[dbo].[stg_alerta_app_tr_rej]</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f>stg_alerta_app_tr_rej!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f>stg_alerta_app_tr_rej!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="20" t="str">
+        <f>stg_alerta_app_tr_rej_total!B9</f>
+        <v>[dbo].[stg_alerta_app_tr_rej_total]</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f>stg_alerta_app_tr_rej_total!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f>stg_alerta_app_tr_rej_total!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="20" t="str">
+        <f>stg_taxa_app!B9</f>
+        <v>[dbo].[stg_taxa_app]</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f>stg_taxa_app!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f>stg_taxa_app!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="20" t="str">
         <f>stg_taxa_app_mp!B9</f>
         <v>[dbo].[stg_taxa_app_mp]</v>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C12" s="17" t="str">
         <f>stg_taxa_app_mp!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D3" s="18" t="str">
+      <c r="D12" s="18" t="str">
         <f>stg_taxa_app_mp!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx</v>
-      </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="20"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="20"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="20"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="20"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="20"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="20"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="20"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+      </c>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="2:5" ht="15">
-      <c r="B13" s="20"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="20" t="str">
+        <f>stg_taxa_app_sac!B9</f>
+        <v>[dbo].[stg_taxa_app_sac]</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f>stg_taxa_app_sac!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f>stg_taxa_app_sac!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+      </c>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="19"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+    <row r="14" spans="2:5" ht="15">
+      <c r="B14" s="20" t="str">
+        <f>stg_taxa_app_unineg!B9</f>
+        <v>[dbo].[stg_taxa_app_unineg]</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f>stg_taxa_app_unineg!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f>stg_taxa_app_unineg!B10</f>
+        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+      </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="11"/>
+    <row r="15" spans="2:5" ht="15">
+      <c r="B15" s="20"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+    <row r="16" spans="2:5" ht="15">
+      <c r="B16" s="20"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:5" ht="15">
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="11"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="B3:E4">
-    <sortCondition ref="B3"/>
+  <sortState ref="B3:E14">
+    <sortCondition ref="B11"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B12" location="stg_taxa_app_mp!A1" display="stg_taxa_app_mp!A1"/>
+    <hyperlink ref="B13" location="stg_taxa_app_sac!A1" display="stg_taxa_app_sac!A1"/>
+    <hyperlink ref="B14" location="stg_taxa_app_unineg!A1" display="stg_taxa_app_unineg!A1"/>
+    <hyperlink ref="B11" location="stg_taxa_app!A1" display="stg_taxa_app!A1"/>
+    <hyperlink ref="B4" location="aux_ods_taxa_app!A1" display="aux_ods_taxa_app!A1"/>
+    <hyperlink ref="B6" location="ods_taxa_app!A1" display="ods_taxa_app!A1"/>
+    <hyperlink ref="B7" location="ods_taxa_aprovacao!A1" display="ods_taxa_aprovacao!A1"/>
+    <hyperlink ref="B8" location="stg_alerta_app!A1" display="stg_alerta_app!A1"/>
+    <hyperlink ref="B3" location="aux_ods_alerta_app!A1" display="aux_ods_alerta_app!A1"/>
+    <hyperlink ref="B5" location="ods_alerta_app!A1" display="ods_alerta_app!A1"/>
+    <hyperlink ref="B9" location="stg_alerta_app_tr_rej!A1" display="stg_alerta_app_tr_rej!A1"/>
+    <hyperlink ref="B10" location="stg_alerta_app_tr_rej_total!A1" display="stg_alerta_app_tr_rej_total!A1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -980,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -992,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
@@ -1000,13 +2454,289 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
         <v>18</v>
       </c>
+      <c r="B15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="D24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="D25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="D26" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="D27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="D28" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="D29" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="22" t="s">
@@ -1015,18 +2745,2145 @@
       <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="D20" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="D21" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="D22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="D23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1"/>
+    <row r="28" spans="1:5" ht="30" customHeight="1"/>
+    <row r="29" spans="1:5" ht="30" customHeight="1"/>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
+    <row r="32" spans="1:5" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1"/>
+    <row r="17" spans="4:5" ht="30" customHeight="1">
+      <c r="D17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="30" customHeight="1">
+      <c r="D18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="30" customHeight="1">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="4:5" ht="30" customHeight="1"/>
+    <row r="21" spans="4:5" ht="30" customHeight="1"/>
+    <row r="22" spans="4:5" ht="30" customHeight="1"/>
+    <row r="23" spans="4:5" ht="30" customHeight="1"/>
+    <row r="24" spans="4:5" ht="30" customHeight="1"/>
+    <row r="25" spans="4:5" ht="30" customHeight="1"/>
+    <row r="26" spans="4:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="D21" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="D22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="D23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="D24" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="D25" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="D26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="D27" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="D28" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="D29" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="D30" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="22" t="s">
@@ -1035,57 +4892,408 @@
       <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="21"/>
+        <v>158</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
+      <c r="D23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="D24" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="D25" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="D26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="D27" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="D28" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="D29" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="D30" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="D23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="D24" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="D25" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="D26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="D27" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="D28" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="D29" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="D30" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="30" customHeight="1"/>
+    <row r="44" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Layouts/Cockpit_Approved.xlsx
+++ b/Documentação/Planilhas/Layouts/Cockpit_Approved.xlsx
@@ -568,9 +568,6 @@
     <t>FormaPagamentoSige</t>
   </si>
   <si>
-    <t>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</t>
-  </si>
-  <si>
     <t>fin.ods_sige_bandeira_pagto</t>
   </si>
   <si>
@@ -607,7 +604,10 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</t>
+    <t>N:\Migracao\Cockpit Approved\stg_alerta_aprovacao.dtsx</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Cockpit Approved\stg_taxa_aprovacao.dtsx</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1817,9 @@
   </sheetPr>
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1854,7 +1856,7 @@
       </c>
       <c r="D3" s="18" t="str">
         <f>aux_ods_alerta_app!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_alerta_aprovacao.dtsx</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -1869,7 +1871,7 @@
       </c>
       <c r="D4" s="18" t="str">
         <f>aux_ods_taxa_app!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_taxa_aprovacao.dtsx</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -1884,7 +1886,7 @@
       </c>
       <c r="D5" s="18" t="str">
         <f>ods_alerta_app!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_alerta_aprovacao.dtsx</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -1899,7 +1901,7 @@
       </c>
       <c r="D6" s="18" t="str">
         <f>ods_taxa_app!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_taxa_aprovacao.dtsx</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -1914,7 +1916,7 @@
       </c>
       <c r="D7" s="18" t="str">
         <f>ods_taxa_aprovacao!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_taxa_aprovacao.dtsx</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -1929,7 +1931,7 @@
       </c>
       <c r="D8" s="18" t="str">
         <f>stg_alerta_app!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_alerta_aprovacao.dtsx</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1944,7 +1946,7 @@
       </c>
       <c r="D9" s="18" t="str">
         <f>stg_alerta_app_tr_rej!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_alerta_aprovacao.dtsx</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1959,7 +1961,7 @@
       </c>
       <c r="D10" s="18" t="str">
         <f>stg_alerta_app_tr_rej_total!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_alerta_aprovacao.dtsx e stg_alerta_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_alerta_aprovacao.dtsx</v>
       </c>
       <c r="E10" s="12"/>
     </row>
@@ -1974,7 +1976,7 @@
       </c>
       <c r="D11" s="18" t="str">
         <f>stg_taxa_app!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_taxa_aprovacao.dtsx</v>
       </c>
       <c r="E11" s="12"/>
     </row>
@@ -1989,7 +1991,7 @@
       </c>
       <c r="D12" s="18" t="str">
         <f>stg_taxa_app_mp!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_taxa_aprovacao.dtsx</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -2004,7 +2006,7 @@
       </c>
       <c r="D13" s="18" t="str">
         <f>stg_taxa_app_sac!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_taxa_aprovacao.dtsx</v>
       </c>
       <c r="E13" s="12"/>
     </row>
@@ -2019,7 +2021,7 @@
       </c>
       <c r="D14" s="18" t="str">
         <f>stg_taxa_app_unineg!B10</f>
-        <v>N:\Migracao\Cockpit Approved_Prod\Cockpit Approved\stg_taxa_aprovacao.dtsx e stg_taxa_aprovacao_barateiro.dtsx</v>
+        <v>N:\Migracao\Cockpit Approved\stg_taxa_aprovacao.dtsx</v>
       </c>
       <c r="E14" s="12"/>
     </row>
@@ -2100,7 +2102,9 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2158,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2380,7 +2384,9 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2434,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2446,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
@@ -2544,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>10</v>
@@ -2599,7 +2605,7 @@
         <v>175</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
@@ -2612,18 +2618,18 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="D28" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="D29" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
@@ -2648,7 +2654,9 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2706,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2718,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
@@ -2775,7 +2783,7 @@
     <row r="18" spans="1:5" ht="30" customHeight="1"/>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="D19" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>10</v>
@@ -2794,7 +2802,7 @@
         <v>175</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
@@ -2802,7 +2810,7 @@
         <v>175</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
@@ -2906,7 +2914,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2918,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
@@ -2951,7 +2959,7 @@
     <row r="16" spans="1:5" ht="30" customHeight="1"/>
     <row r="17" spans="4:5" ht="30" customHeight="1">
       <c r="D17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
@@ -2962,7 +2970,7 @@
         <v>130</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="30" customHeight="1">
@@ -2990,7 +2998,9 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3048,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3137,7 +3147,9 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3195,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3545,7 +3557,9 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3603,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -3688,7 +3702,9 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3746,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4092,7 +4108,9 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4150,7 +4168,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4504,7 +4522,9 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4562,7 +4582,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4574,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
@@ -4667,7 +4687,7 @@
     <row r="20" spans="1:5" ht="30" customHeight="1"/>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="D21" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>10</v>
@@ -4675,7 +4695,7 @@
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="D22" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>176</v>
@@ -4683,15 +4703,15 @@
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="D23" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="D24" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>178</v>
@@ -4699,23 +4719,23 @@
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="D25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="D26" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="D27" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>177</v>
@@ -4723,26 +4743,26 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="D28" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="D29" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="D30" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
@@ -4767,7 +4787,9 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4825,7 +4847,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4837,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
@@ -4957,7 +4979,7 @@
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="D23" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>10</v>
@@ -4965,7 +4987,7 @@
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="D24" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>176</v>
@@ -4973,23 +4995,23 @@
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="D25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="D26" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="D27" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>177</v>
@@ -4997,7 +5019,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="D28" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>178</v>
@@ -5005,15 +5027,15 @@
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="D29" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="D30" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>179</v>
@@ -5047,7 +5069,9 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -5105,7 +5129,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -5117,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
@@ -5212,7 +5236,7 @@
     <row r="22" spans="1:5" ht="30" customHeight="1"/>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="D23" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>10</v>
@@ -5220,7 +5244,7 @@
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="D24" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>176</v>
@@ -5228,23 +5252,23 @@
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="D25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="D26" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="D27" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>177</v>
@@ -5252,7 +5276,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="D28" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>178</v>
@@ -5260,15 +5284,15 @@
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="D29" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="D30" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>179</v>
